--- a/biology/Zoologie/Boophis_baetkei/Boophis_baetkei.xlsx
+++ b/biology/Zoologie/Boophis_baetkei/Boophis_baetkei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis baetkei est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis baetkei est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du parc national de la Montagne d'Ambre à Madagascar[1]. Elle se rencontre à environ 470 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du parc national de la Montagne d'Ambre à Madagascar. Elle se rencontre à environ 470 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Boophis baetkei mesure environ 30 mm. Son dos est vert translucide avec de petites taches rougeâtres ou violacées. Une ligne longitudinale de couleur rose doré est présente. Son ventre est blanc ; sa gorge est jaunâtre.
 </t>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, baetkei, lui a été donné en référence à Claus Bätke, membre de la GTZ et leader dans le programme Tropenökologisches Begleitprogramm, pour son investissement personnel pour le lancement du Biopat[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, baetkei, lui a été donné en référence à Claus Bätke, membre de la GTZ et leader dans le programme Tropenökologisches Begleitprogramm, pour son investissement personnel pour le lancement du Biopat.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Köhler, Glaw &amp; Vences, 2008 : Two additional treefrogs of the Boophis ulftunni species group (Anura: Mantellidae) discovered in rainforests of northern and south-eastern Madagascar. Zootaxa, no 1814, p. 37-48 (texte intégral).</t>
         </is>
